--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -34,228 +34,350 @@
     <t>image</t>
   </si>
   <si>
-    <t>https://m.materielelectrique.com/bisou-daffounet-p-103091.html</t>
-  </si>
-  <si>
-    <t>Schneider Odace va-et-vient Blanc, 10 A, à vis</t>
-  </si>
-  <si>
-    <t>3606480317989</t>
+    <t>section small grey</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-1.html</t>
+  </si>
+  <si>
+    <t>Pile 3LR50 - Alcaline blister de 2 - 12V - Duracell - Torro</t>
+  </si>
+  <si>
+    <t>5000394203969</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>Va-et-vient Odace Schneider
-L’Interrupteur Va-et-Vient à Vis Odace, 10 A, de la marque Schneider, est un dispositif permettant de commander l’allumage d’un point de lumière. Utilisé pour une installation encastrée et en paire avec un autre interrupteur va-et-vient, cet interrupteur unipolaire peut être utilisé pour contrôler les luminaires extérieurs et intérieurs.
+    <t>5.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pile Duracell MN21 - Alcaline par 1 - 12V 
+Cette pile alcaline 3LR50, de la marque Duracell, est utilisée pour l’alimentation des appareils électroniques sans fil. Elle permet de fournir aux appareils une charge électrique pour leur fonctionnement. Elle offre une tension de sortie de 12 V. Cette source d’énergie est souvent utilisée pour alimenter les télécommandes sans fil, les sonnettes de porte sans fil et les systèmes de sécurité comme l’alarme ou le localisateur. Elle est livrée en 2 blisters avec une longue durée de vie de 5 ans.
 Les + du produit :
-Unipolaire 2 voies  
-Caractéristiques principales :
-Gamme de produits : Odace
-Type de produit ou de composant : Interrupteur
-Présentation du produit : Mécanisme avec cadre en plastique
-Information supplémentaire pour interrupteur : Avec raccord d'alimentation interne
-Utilisation de l'interrupteur : Fonction interrupteur marche/arrêt
-Type d'emballage : Couvercle de protection peinture
-Infos fabricant : 10 pieces
-Vente par quantité indivisible : 1
-Caractéristiques complémentaires :
-Montage du système d'installation : Pose encastré
-Type d'interrupteur : Va-et-vient
-Nombre de touches : 1
-Commande : Enjoliveur
-Mode de fixation : Par vis
-Nuance de la couleur : Blanc(RAL 9003)
-Finition de la surface : Brillant
-Courant assigné d'emploi : 10 AX - 250 V AC 50 Hz
-Capacité minimum de coupure de la charge : 200 opérations à 1,25 In et 1,1 Un cos ' = 0,3
-Durée de vie en cycles : 20000 cycle @ ON / OFF ( cos' = 0.6 et Ue nominal )
-Nombre de bornes : 3 bornes sans vis
-Forme de la tête de vis : Pozidriv N°1
-Capacité de serrage des bornes : 1 x 1,5...2 x 2,5 mm² multibrin câble(s) / 1 x 1,5...2 x 2,5 mm² souple câble(s) / 1 x 1,5...2 x 2,5 mm² rigide câble(s)
-Longueur de dénudage des fils : 12 mm
-Signalisation locale : Éclairage
-Matière : Façade : thermoplastic ABS-anti UV / Cadre support : PBT (polybutylene terephthalate) GF30 / Boitier : PC (polycarbonate) GF10 FR
-Hauteur : 71 mm
-Largeur : 71 mm
-Profondeur : 33.6 mm
-Profondeur d'encastrement : 18.75 mm
-Masse du produit : 0.04 kg
-Référence : SCHS520204 (Schneider-Electric)_x000D_
- </t>
-  </si>
-  <si>
-    <t>https://m.materielelectrique.com/media/product_image/0002/82/schneider_electric_schs520204_103091_181894_product_image_d_preview.jpeg</t>
-  </si>
-  <si>
-    <t>https://m.materielelectrique.com/bisou-daffounet-p-103092.html</t>
-  </si>
-  <si>
-    <t>Schneider Odace permutateur Blanc, 10 A, à vis</t>
-  </si>
-  <si>
-    <t>3606480317996</t>
-  </si>
-  <si>
-    <t>13.01</t>
-  </si>
-  <si>
-    <t>Permutateur Schneider Odace
-Ce permutateur Odace, de la marque Schneider Electric, est un mécanisme de commande d'éclairage permettant d'allumer et d'éteindre un point lumineux. Il est utilisé dans un circuit va-et-vient pour ajouter un troisième point de commande d’éclairage. Ce permutateur peut commander un éclairage sur un courant de 10 A avec une tension alternative de 250 V et une fréquence réseau de 50 Hz. Il possède des bornes à vis pour le raccordement avec les va-et-vient et se fixe en encastré à l’aide de vis ou de griffes. 
-Les + du produit :
-Doté de capot de protection
-Livré avec support de fixation
-Caractéristiques principales :
-Gamme de produits : Odace
-Type de produit ou de composant : Interrupteur
-Présentation du produit : Mécanisme avec cadre en plastique
-Information supplémentaire pour interrupteur : Avec raccord d'alimentation interne
-Utilisation de l'interrupteur : Fonction interrupteur marche/arrêt
-Type d'emballage : Couvercle de protection peinture
-Infos fabricant : 10 pieces
-Vente par quantité indivisible : 1
-Caractéristiques complémentaires :
-Montage du système d'installation : Pose encastré
-Type d'interrupteur : Intermediate
-Nombre de touches : 1
-Commande : Doigt d'interrupteur
-Mode de fixation : Par vis
-Nuance de la couleur : Blanc(RAL 9003)
-Finition de la surface : Brillant
-Courant assigné d'emploi : 10 AX - 250 V AC 50 Hz
-Capacité minimum de coupure de la charge : 200 opérations à 1,25 In et 1,1 Un cos ' = 0,3
-Durée de vie en cycles : 20000 cycle @ ON / OFF ( cos' = 0.6 et Ue nominal )
-Nombre de bornes : 4 bornes sans vis
-Forme de la tête de vis : Pozidriv N°1
-Capacité de serrage des bornes : 1 x 1,5...2 x 2,5 mm² multibrin câble(s) / 1 x 1,5...2 x 2,5 mm² souple câble(s) / 1 x 1,5...2 x 2,5 mm² rigide câble(s)
-Longueur de dénudage des fils : 12 mm
-Signalisation locale : Éclairage
-Matière : Façade : thermoplastic ABS-anti UV / Cadre support : PBT (polybutylene terephthalate) GF30 / Boitier : PC (polycarbonate) GF10 FR
-Hauteur : 71 mm
-Largeur : 71 mm
-Profondeur : 33.6 mm
-Profondeur d'encastrement : 18.75 mm
-Masse du produit : 0.04 kg
-Référence : SCHS520205 (Schneider-Electric)_x000D_
- </t>
-  </si>
-  <si>
-    <t>https://m.materielelectrique.com/media/product_image/0002/82/schneider_electric_schs520205_103092_181895_product_image_d_preview.jpeg</t>
-  </si>
-  <si>
-    <t>https://m.materielelectrique.com/bisou-daffounet-p-103093.html</t>
-  </si>
-  <si>
-    <t>Schneider Odace poussoir Blanc, 10 A, à vis</t>
-  </si>
-  <si>
-    <t>3606480318108</t>
-  </si>
-  <si>
-    <t>5.03</t>
-  </si>
-  <si>
-    <t>Bouton  poussoir Schneider Odace -  Blanc
-Ce poussoir blanc, Odace, de la marque Schneider Electric, est un mécanisme de commande. Il sert généralement à commander l’allumage et l’extinction d’un point lumineux. Cependant, il peut également être utilisé pour actionner les dispositifs sonores tels que les carillons ou les sonnettes. Ce poussoir blanc est à équiper d’un enjoliveur de la même gamme pour son embellissement et se fixe facilement par simple vissage.
-Des plus simples aux plus évoluées, la gamme Odace bénéfcie des fonctions multimédia (prises chargeur double USB, prises TV...) et des fonctions électroniques (détecteurs de présence, variateurs de lumière, thermostats). Elles apportent du confort dans l’habitat et s’adaptent parfaitement au quotidien. Il est possible d'ajouter un témoin lumineux (Accessoire non fourni).
-La gamme Odace de Schneider Electric, c'est un large choix de plaques de finition pour s'accorder avec la décoration intérieure de chaque client.
-Les + du produit : 
-Large gamme qui s’adapte aux besoins.
-Existe en trois coloris (blanc, aluminium, et anthracite).
-Ajustement des plaques de finition par ergots crantés.
-Caractéristiques principales :
-Gamme de produits : Odace
-Type de produit ou de composant : Bouton-poussoir
-Présentation du produit : Mécanisme avec cadre en plastique
-Information supplémentaire pour interrupteur : Commande du relais d'impulsion
-Utilisation de l'interrupteur : Bouton-poussoir
-Type d'emballage : Couvercle de protection peinture
-Infos fabricant : 10 pieces
-Vente par quantité indivisible : 1
-Caractéristiques complémentaires :
-Montage du système d'installation : Pose encastré
-Type d'interrupteur : Bouton-poussoir
-Nombre de touches : 1
-Commande : Bouton-poussoir
-Mode de fixation : Par vis
-Marquage : Sans marquage
-Nuance de la couleur : Blanc(RAL 9003)
-Finition de la surface : Brillant
-Courant assigné d'emploi : 10 A - 250 V AC 50/60 Hz
-Capacité minimum de coupure de la charge : 200 opérations à 1,25 In et 1,1 Un cos ' = 0,3
-Durée de vie en cycles : 20000 cycle @ ON / OFF ( cos' = 0.6 et Ue nominal )
-Nombre de bornes : 2 bornes sans vis
-Forme de la tête de vis : Pozidriv N°1
-Capacité de serrage des bornes : 1 x 1,5...2 x 2,5 mm² multibrin câble(s) / 1 x 1,5...2 x 2,5 mm² souple câble(s) / 1 x 1,5...2 x 2,5 mm² rigide câble(s)
-Longueur de dénudage des fils : 12 mm
-Signalisation locale : Éclairage
-Matière : Façade : thermoplastic ABS-anti UV / Cadre support : PBT (polybutylene terephthalate) GF30 / Boitier : PC (polycarbonate) GF10 FR
-Hauteur : 71 mm
-Largeur : 71 mm
-Profondeur : 33.6 mm
-Profondeur d'encastrement : 18.75 mm
-Masse du produit : 0.04 kg
-Référence : SCHS520206 (Schneider-Electric)_x000D_
- </t>
-  </si>
-  <si>
-    <t>https://m.materielelectrique.com/media/product_image/0002/82/schneider_electric_schs520206_103093_181896_product_image_d_preview.jpeg</t>
-  </si>
-  <si>
-    <t>https://m.materielelectrique.com/bisou-daffounet-p-103094.html</t>
-  </si>
-  <si>
-    <t>Schneider Odace poussoir Blanc, 2 boutons montée/descente pour volets-roulants</t>
-  </si>
-  <si>
-    <t>3606480318139</t>
-  </si>
-  <si>
-    <t>14.88</t>
-  </si>
-  <si>
-    <t>Bouton poussoir Schneider Odace - 2 boutons montée/descente
-Ce poussoir Odace, de la marque Schneider Electric, est un mécanisme servant à actionner le moteur d’un volet roulant. Il est équipé de 2 boutons permettant d’émettre un ordre de montée ou de descente au moteur auquel il est associé. Il est à installer en encastré et peut piloter l’ouverture et la fermeture d’un volet sur un circuit de 6 A, avec une tension de 250 V. Ce poussoir, montée et descente, possède 3 bornes sans vis pour le raccordement et pour relayer la commande du moteur.  Cet accessoire au design moderne offre un confort d’utilisation optimal.
-Les + du produit : 
-Large gamme qui s’adapte aux besoins.
-Existe en trois coloris (blanc, aluminium, et anthracite).
-Ajustement des plaques de finition par ergots crantés.
-Caractéristiques principales :
-Gamme de produits : Odace
-Type de produit ou de composant : Interrupteur à bouton-poussoir
-Présentation du produit : Mécanisme avec cadre en plastique
-Utilisation de l'interrupteur : Roller blind
-Information supplémentaire pour interrupteur : Verrouillage mécanique et électrique entre haut/bas
-Type d'emballage : Couvercle de protection peinture
-Infos fabricant : 5 pièces
-Vente par quantité indivisible : 1
-Caractéristiques complémentaires :
-Montage du système d'installation : Pose encastré
-Type d'interrupteur : 2-way / 3 positions / Bouton-poussoir
-Nombre de touches : 2
-Commande : Bouton-poussoir
-Mode de fixation : Par vis
-Nuance de la couleur : Blanc(RAL 9003)
-Finition de la surface : Brillant
-Courant assigné d'emploi : 6 A - 250 V AC 50/60 Hz
-Capacité minimum de coupure de la charge : 200 opérations 1,25 In et 1,1 Un
-Nombre de bornes : 3 bornes sans vis
-Forme de la tête de vis : Pozidriv N°1
-Capacité de serrage des bornes : 1 x 1,5...2 x 2,5 mm² multibrin câble(s) / 1 x 1,5...2 x 2,5 mm² souple câble(s) / 1 x 1,5...2 x 2,5 mm² rigide câble(s)
-Longueur de dénudage des fils : 12 mm
-Matière : Façade : thermoplastic ABS-anti UV / Cadre support : PBT (polybutylene terephthalate) GF30 / Boitier : PC (polycarbonate) GF10 FR
-Hauteur : 71 mm
-Largeur : 71 mm
-Profondeur : 43 mm
-Profondeur d'encastrement : 31.2 mm
-Masse du produit : 0.048 kg
-Référence : SCHS520207 (Schneider-Electric)</t>
-  </si>
-  <si>
-    <t>https://m.materielelectrique.com/media/product_image/0002/82/schneider_electric_schs520207_103094_181897_product_image_d_preview.jpeg</t>
+Longue durée de vie de 5 ans
+Caractéristiques du produit :
+Voltage : 12V
+Equivalences : 23A , 23AE , P23GA, VA23A, V23GA , MN21 , GP23, EL12 , VR22 , L1028 , GP23A , LR23A, CN23A, GP23AE, a23s, 3LR50
+Dimension : 10 x 28 mm
+Type : Alcaline
+Cette pile de marque DURACELL vous apportera l'energie nécessaire à toutes vos applications. L'excellence de DURACELL se mettra à votre service.
+Utilisation: télécommande, électronique, bip ...
+</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tormn21_b2_1_1_product_image_d_preview.gif</t>
+  </si>
+  <si>
+    <t>TORMN21-B2</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-2.html</t>
+  </si>
+  <si>
+    <t>Pile LR01 - N - Alcaline par 1 - 1,5V - Duracell - Torro</t>
+  </si>
+  <si>
+    <t>5000394203983</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Pile LR01 - N - Alcaline par 1 - 1,5V - Duracell_x000D_
+Voltage : 1,5V_x000D_
+Equivalences : N , LR01 , LR1 , MN9100 , AM5 , E90, UM5, SUM5, LR1N_x000D_
+Dimension : 11,72 x 29,10 mm_x000D_
+Forme : ronde_x000D_
+Type : Alcaline_x000D_
+Cette pile de marque DURACELL est parfaite pour les applications les plus exigeantes que vous rencontrerez._x000D_
+Vous pourrez lui confier l'alimentation de vos appareils , ainsi que l'utiliser pour la photographie._x000D_
+Utilisation: photographie, sauvegarde, électronique ...</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tormn9100b2_2_2_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TORMN9100B2</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-3.html</t>
+  </si>
+  <si>
+    <t>Piles LR44 - Alcaline par 2 - 1,5V -Duracell - Torro</t>
+  </si>
+  <si>
+    <t>5000394504424</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Piles LR44 - Alcaline par 2 - 1,5V -Duracell_x000D_
+Voltage : 1.5V_x000D_
+Equivalences : LR44 , V13GA , A76 , AG13 , L1154 ,A357 , LR1154 , PX675 , PX675A , G13A , G13-A , 357A, RPX675, D76A, PX76A, GPA76, 1128MP, 1166A, S76, MR44, d357, d357h, AG-13_x000D_
+Dimension : 11,60 x 5,40 mm_x000D_
+Forme : pile bouton_x000D_
+Type : Alcaline_x000D_
+Cette pile de marque DURACELL vous apportera l'energie nécessaire à toutes vos applications. L'excellence de DURACELL se mettra à votre service._x000D_
+Utilisation:photographie, sauvegarde, électronique ...</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tor2lr44du_3_3_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TOR2LR44DU</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-4.html</t>
+  </si>
+  <si>
+    <t>Pile LR12 - Alcaline par 1 - 4,5V - Duracell Plus - Torro</t>
+  </si>
+  <si>
+    <t>5000394105508</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Pile LR12 - Alcaline par 1 - 4,5V - Duracell Plus_x000D_
+Voltage : 4,5V_x000D_
+Equivalences : 3LR12 , 3R12 , LR12 , R12 , 4,5V , MN1203, 4.5 volts , pile plate_x000D_
+Dimension : 67 x 62 x 22 mm_x000D_
+Forme : carré_x000D_
+Type : Type:_x000D_
+Les piles DURACELL PLUS, sont à ce jour, parmi les meilleurs produits du marché, de part la qualité et la rigueur de leur fabrication._x000D_
+Utilisation: Lampe de poche , pyrotechnie, appareil de mesure ...</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tormn1203b1_plus_4_4_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TORMN1203B1-PLUS</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-5.html</t>
+  </si>
+  <si>
+    <t>Piles LR6 - AA - Alcaline par 4 - 1,5V - Duracell Plus - Torro</t>
+  </si>
+  <si>
+    <t>5000394099494</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>Piles LR06 - AA - Alcaline par 4 - 1,5V - Duracell Plus_x000D_
+Voltage : 1,5V_x000D_
+Equivalences : LR6 , LR06 , R6 , AA , MN1500 , AM3 , E91, mignon_x000D_
+Dimension : 14,50 x 50,50 mm_x000D_
+Forme : ronde_x000D_
+Type : Alcaline_x000D_
+Les piles DURACELL PLUS délivrent l'énergie nécessaire au bon fonctionnement vos appareils High Tech gros consommateurs d’énergie, comme celle de vos appareils domestiques, tout en leur assurant une plus longue durée d’utilisation._x000D_
+Utilisation: MP3 , jouets , photo , torches ...</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tormn1500b4_plus_5_5_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TORMN1500B4-PLUS</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-6.html</t>
+  </si>
+  <si>
+    <t>Piles LR14 - C - Alcaline par 2 - 1,5V - Duracell Plus - Torro</t>
+  </si>
+  <si>
+    <t>5000394105379</t>
+  </si>
+  <si>
+    <t>6.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Piles LR14 - C - Alcaline par 2 - 1,5V - Duracell Plus_x000D_
+Voltage : 1,5V_x000D_
+Equivalences : LR14 , C , R14 , MN1400 , AM2 , E93_x000D_
+Dimension : 26,20 x 50 mm_x000D_
+Forme : ronde_x000D_
+Type : Alcaline_x000D_
+Les piles DURACELL PLUS délivrent l'énergie nécessaire au bon fonctionnement vos appareils High Tech gros consommateurs d’énergie, comme celle de vos appareils domestiques, tout en leur assurant une plus longue durée d’utilisation._x000D_
+Utilisation: MP3 , jouets , photo , torches ...</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tormn1400b2_plus_6_6_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TORMN1400B2-PLUS</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-7.html</t>
+  </si>
+  <si>
+    <t>Piles LR20 - D - Alcaline par 2 - 1,5V - Duracell Plus - Torro</t>
+  </si>
+  <si>
+    <t>5000394105461</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>Piles LR20 - D - Alcaline par 2 - 1,5V - Duracell Plus_x000D_
+Voltage : 1,5V_x000D_
+Equivalences : LR20 , R20 , D , MN1300 , AM1 , E95_x000D_
+Dimension : 34,20 x 61,50 mm_x000D_
+Type : Alcaline_x000D_
+Les piles Alcaline de conception DURACELL PLUS sont particulièrement adaptées aux appareils gros consommateurs d'énergie comme les baladeurs numériques MP3, les PDA, les GPS , les appareils photos numériques ....
+_x000D_
+Utilisation: MP3 , jouets , photo , torches ...</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tormn1300b2_plus_7_7_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TORMN1300B2-PLUS</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-8.html</t>
+  </si>
+  <si>
+    <t>Piles LR03 - AAA - Alcaline par 4 - 1,5V - Duracell Plus - Torro</t>
+  </si>
+  <si>
+    <t>5000394099524</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t> Piles LR03 - AAA - Alcaline par 4 - 1,5V - Duracell Plus_x000D_
+Voltage : 1,5V_x000D_
+Equivalences : LR03 , LR3 , R3 , AAA , MN2400 , AM4 , E92, UM4_x000D_
+Dimension : 10,50 x 44,50 mm_x000D_
+Forme : ronde_x000D_
+Type : Alcaline_x000D_
+4 piles LR03 de marque DURACELL PLUS._x000D_
+Les piles DURACELL PLUS délivrent l'énergie nécessaire au bon fonctionnement vos appareils High Tech gros consommateurs d’énergie, comme celle de vos appareils domestiques, tout en leur assurant une plus longue durée d’utilisation._x000D_
+Utilisation: MP3 , jouets , photo , torches ...</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tormn2400b4_plus_8_8_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TORMN2400B4-PLUS</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-9.html</t>
+  </si>
+  <si>
+    <t>Pile 6LR61 - Alcaline par 1 - 9V - Duracell Plus - Torro</t>
+  </si>
+  <si>
+    <t>5000394105485</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Piles 6LR61 - Alcaline par 1 - 9V - Duracell Plus_x000D_
+Voltage : 9V_x000D_
+Equivalences : 9V , LR22 , LF22 , 6LR61 , 6LF22, MN1604_x000D_
+Dimension : 47,50 x 25,50 x 16,50 mm_x000D_
+Forme : carré_x000D_
+Type : Alcaline
+_x000D_
+Les piles DURACELL PLUS délivrent l'énergie nécessaire au bon fonctionnement vos appareils High Tech gros consommateurs d’énergie, comme celle de vos appareils domestiques, tout en leur assurant une plus longue durée d’utilisation._x000D_
+Utilisation: MP3 , jouets , photo , torches ...</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tormn1604b1_plus_9_9_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TORMN1604B1-PLUS</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-10.html</t>
+  </si>
+  <si>
+    <t>Pile LR12 - Alcaline par 1 - 4,5V - Duracall Procell</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-11.html</t>
+  </si>
+  <si>
+    <t>Piles LR6 - Alcaline par 8 - 1,5V - Duracell Plus - Torro</t>
+  </si>
+  <si>
+    <t>5000394099296</t>
+  </si>
+  <si>
+    <t>7.42</t>
+  </si>
+  <si>
+    <t>Piles LR06 - AA - Alcaline par 8 - 1,5V - Duracell Plus_x000D_
+Voltage : 1,5V_x000D_
+Equivalences : LR6 , LR06 , R6 , AA , MN1500 , AM3 , E91, mignon_x000D_
+Dimension : 14,50 x 50,50 mm_x000D_
+Forme : ronde_x000D_
+Type : Alcaline_x000D_
+Les piles DURACELL PLUS délivrent l'énergie nécessaire au bon fonctionnement vos appareils High Tech gros consommateurs d’énergie, comme celle de vos appareils domestiques, tout en leur assurant une plus longue durée d’utilisation._x000D_
+Utilisation: MP3 , jouets , photo , torches ...</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/01/duracell_tormulti_mn1500b8_11_11_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TORMULTI-MN1500B8</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-12.html</t>
+  </si>
+  <si>
+    <t>Torche Minimag / Maglite 14,4cm</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-13.html</t>
+  </si>
+  <si>
+    <t>Lampe torche Maglite ML2 noire 25cm - Torro</t>
+  </si>
+  <si>
+    <t>38739011851</t>
+  </si>
+  <si>
+    <t>44.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caractéristiques générales :
+Lampe torche noire incandescente.
+Equipée d'ampoule Krypton white star.
+Résistante à l'eau.
+Livrée avec une ampoule de rechange logée dans le bouchon.
+Portée 230 mètres.
+Fonctionne avec 2 piles D non fournies.
+Autonomie 10 heures.
+Ampoule LWSA201.
+</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/media/product_image/0001/06/maglite_tors2d016u_13_5397_product_image_d_preview.jpeg</t>
+  </si>
+  <si>
+    <t>TORS2D016U</t>
+  </si>
+  <si>
+    <t>https://m.materielelectrique.com/bisou-daffounet-p-14.html</t>
+  </si>
+  <si>
+    <t>Pile 4R25 x 2 saline plastique 6V à vis - Torro</t>
   </si>
 </sst>
 </file>
@@ -600,34 +722,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -642,76 +767,327 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="G6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="G7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="G8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="G9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="G10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="A12" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="A14" r:id="rId23"/>
+    <hyperlink ref="G14" r:id="rId24"/>
+    <hyperlink ref="A15" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
